--- a/Organisation/Risikoanalyse.xlsx
+++ b/Organisation/Risikoanalyse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Risikotyp</t>
   </si>
@@ -59,9 +59,6 @@
 wirkung</t>
   </si>
   <si>
-    <t>Regelmäßige Rücksprache mit dem Kunden</t>
-  </si>
-  <si>
     <t>Regelmäßige Meetings und Reviews</t>
   </si>
   <si>
@@ -101,15 +98,6 @@
     <t>gering</t>
   </si>
   <si>
-    <t>mittel</t>
-  </si>
-  <si>
-    <t>hoch</t>
-  </si>
-  <si>
-    <t>Risikofaktoren</t>
-  </si>
-  <si>
     <t>Risikobewertung</t>
   </si>
   <si>
@@ -122,13 +110,97 @@
     <t>Beschreibung der Werte</t>
   </si>
   <si>
-    <t>&gt;= 3</t>
-  </si>
-  <si>
     <t>kein Risiko</t>
   </si>
   <si>
-    <t>&gt;= 1</t>
+    <t>Inkompatibilität</t>
+  </si>
+  <si>
+    <t>Inkompatibilität von Frameworks</t>
+  </si>
+  <si>
+    <t>Nicht auf ein einzelnes Framework fixieren</t>
+  </si>
+  <si>
+    <t>Regelmäßige Rücksprache mit dem Kunden, Festlegungsverträge</t>
+  </si>
+  <si>
+    <t>Konfliktsituationen</t>
+  </si>
+  <si>
+    <t>Auseinandersetzungen zwischen Teammitgliedern</t>
+  </si>
+  <si>
+    <t>Konflikte werden in der Gruppe gelöst. Konstruktive Meetings</t>
+  </si>
+  <si>
+    <t>Belastung</t>
+  </si>
+  <si>
+    <t>Kurzzeitige Überbelastung durch andere Projekte, Vorlesungen, etc.</t>
+  </si>
+  <si>
+    <t>Vorrausschauende Planung, Rücksprache mit anderen Dozenten</t>
+  </si>
+  <si>
+    <t>Technik</t>
+  </si>
+  <si>
+    <t>Redundante Resourcenverwaltung</t>
+  </si>
+  <si>
+    <t>Ausfall von Werkzeugen, technischen Hilfsmittel</t>
+  </si>
+  <si>
+    <t>Methodik</t>
+  </si>
+  <si>
+    <t>Falsch angewendete Methodik zur Lösung einer Aufgabe</t>
+  </si>
+  <si>
+    <t>Besprechung im Vorab der angewendeten Methodiken</t>
+  </si>
+  <si>
+    <t>sehr unwahrscheinlich</t>
+  </si>
+  <si>
+    <t>unwahrscheinlich</t>
+  </si>
+  <si>
+    <t>wahrscheinlich (50/50)</t>
+  </si>
+  <si>
+    <t>sehr wahrscheinlich</t>
+  </si>
+  <si>
+    <t>äußerst wahrscheinlich</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichkeitsfaktoren</t>
+  </si>
+  <si>
+    <t>Auswirkungsfaktoren</t>
+  </si>
+  <si>
+    <t>vernachlässigbar</t>
+  </si>
+  <si>
+    <t>mittelmäßig</t>
+  </si>
+  <si>
+    <t>kritisch</t>
+  </si>
+  <si>
+    <t>katastrophal</t>
+  </si>
+  <si>
+    <t>1 - 8</t>
+  </si>
+  <si>
+    <t>9 - 17</t>
+  </si>
+  <si>
+    <t>18 - 25</t>
   </si>
 </sst>
 </file>
@@ -284,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,11 +410,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -358,12 +457,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF72EC72"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -651,30 +747,30 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.85546875" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
@@ -688,7 +784,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>2</v>
@@ -698,11 +794,11 @@
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
@@ -713,11 +809,11 @@
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
       <c r="J4" s="21" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>1</v>
       </c>
@@ -725,153 +821,168 @@
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="18">
         <f>D5*E5</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="shared" ref="F6:F8" si="0">D6*E6</f>
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="18">
-        <f t="shared" ref="F6" si="0">D6*E6</f>
-        <v>6</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="J6" s="1">
         <v>2</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
       <c r="F7" s="18">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="J7" s="1">
         <v>3</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
       <c r="F8" s="18">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="J8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>5</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="18">
-        <v>0</v>
-      </c>
+      <c r="F9" s="18"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="J9" s="1">
-        <f xml:space="preserve"> 0</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>6</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="18">
-        <v>0</v>
-      </c>
+      <c r="F10" s="18"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="J10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>7</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="18">
-        <v>0</v>
-      </c>
+      <c r="F11" s="18"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>6</v>
       </c>
@@ -881,8 +992,14 @@
       <c r="F12" s="19"/>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>8</v>
       </c>
@@ -890,23 +1007,29 @@
         <v>7</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="18">
-        <f>D13*E13</f>
-        <v>4</v>
+        <f t="shared" ref="F13:F18" si="1">D13*E13</f>
+        <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>9</v>
       </c>
@@ -914,122 +1037,201 @@
         <v>8</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="18">
-        <f>D14*E14</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>10</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" s="18">
-        <f>D15*E15</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J15" s="1">
+        <v>5</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>11</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
       <c r="F16" s="18">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>12</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="C17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
       <c r="F17" s="18">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>13</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
       <c r="F18" s="18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>14</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="18">
-        <v>0</v>
-      </c>
+      <c r="F19" s="18"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J19" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>15</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="18">
-        <v>0</v>
-      </c>
+      <c r="F20" s="18"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F5:F11 F13:F20">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="F5:F11">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
       <formula>1</formula>
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+      <formula>9</formula>
+      <formula>17</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
+      <formula>18</formula>
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F20">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+      <formula>18</formula>
+      <formula>25</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>9</formula>
+      <formula>17</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
       <formula>1</formula>
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
-      <formula>3</formula>
+      <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
